--- a/labor-timekeeper/exports/2026-01/2026-01-26/Thomas_Brinson_2026-01-26.xlsx
+++ b/labor-timekeeper/exports/2026-01/2026-01-26/Thomas_Brinson_2026-01-26.xlsx
@@ -35,7 +35,7 @@
     <t>2026-01-26</t>
   </si>
   <si>
-    <t>Corr</t>
+    <t>McClure</t>
   </si>
   <si>
     <t>Regular</t>
@@ -44,25 +44,25 @@
     <t>2026-01-27</t>
   </si>
   <si>
-    <t>Moulton</t>
+    <t>Evans</t>
   </si>
   <si>
     <t>2026-01-28</t>
   </si>
   <si>
-    <t>Jackson / Ho</t>
+    <t>Fritts</t>
   </si>
   <si>
     <t>2026-01-29</t>
   </si>
   <si>
-    <t>Smith</t>
+    <t>Hendricks</t>
   </si>
   <si>
     <t>2026-01-30</t>
   </si>
   <si>
-    <t>McGill</t>
+    <t>Regan</t>
   </si>
   <si>
     <t>SUBTOTAL</t>
@@ -98,7 +98,7 @@
     <t>Thomas Brinson</t>
   </si>
   <si>
-    <t>emp_pu67gtu5</t>
+    <t>emp_4nlnrvy7</t>
   </si>
 </sst>
 </file>
@@ -561,10 +561,10 @@
         <v>8</v>
       </c>
       <c r="E2" s="1">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="F2" s="1">
-        <v>0</v>
+        <v>760</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -581,10 +581,10 @@
         <v>8</v>
       </c>
       <c r="E3" s="1">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="F3" s="1">
-        <v>0</v>
+        <v>760</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -601,10 +601,10 @@
         <v>8</v>
       </c>
       <c r="E4" s="1">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="F4" s="1">
-        <v>0</v>
+        <v>760</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -621,10 +621,10 @@
         <v>8</v>
       </c>
       <c r="E5" s="1">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="F5" s="1">
-        <v>0</v>
+        <v>760</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -641,10 +641,10 @@
         <v>8</v>
       </c>
       <c r="E6" s="1">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="F6" s="1">
-        <v>0</v>
+        <v>760</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -664,7 +664,7 @@
         <v>18</v>
       </c>
       <c r="F8" s="5">
-        <v>0</v>
+        <v>3800</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -704,7 +704,7 @@
         <v>18</v>
       </c>
       <c r="F11" s="7">
-        <v>0</v>
+        <v>3800</v>
       </c>
     </row>
     <row r="12" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -744,7 +744,7 @@
         <v>18</v>
       </c>
       <c r="F13" s="9">
-        <v>0</v>
+        <v>3800</v>
       </c>
     </row>
   </sheetData>
@@ -815,10 +815,10 @@
         <v>8</v>
       </c>
       <c r="F2" s="1">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="G2" s="1">
-        <v>0</v>
+        <v>760</v>
       </c>
       <c r="H2" t="s">
         <v>8</v>
@@ -844,10 +844,10 @@
         <v>8</v>
       </c>
       <c r="F3" s="1">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="G3" s="1">
-        <v>0</v>
+        <v>760</v>
       </c>
       <c r="H3" t="s">
         <v>8</v>
@@ -873,10 +873,10 @@
         <v>8</v>
       </c>
       <c r="F4" s="1">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="G4" s="1">
-        <v>0</v>
+        <v>760</v>
       </c>
       <c r="H4" t="s">
         <v>8</v>
@@ -902,10 +902,10 @@
         <v>8</v>
       </c>
       <c r="F5" s="1">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="G5" s="1">
-        <v>0</v>
+        <v>760</v>
       </c>
       <c r="H5" t="s">
         <v>8</v>
@@ -931,10 +931,10 @@
         <v>8</v>
       </c>
       <c r="F6" s="1">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="G6" s="1">
-        <v>0</v>
+        <v>760</v>
       </c>
       <c r="H6" t="s">
         <v>8</v>
